--- a/biology/Zoologie/Goat_yoga/Goat_yoga.xlsx
+++ b/biology/Zoologie/Goat_yoga/Goat_yoga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le goat yoga ou yoga chèvre est une forme de yoga originaire des États-Unis qui se pratique avec des chèvres[1].
+Le goat yoga ou yoga chèvre est une forme de yoga originaire des États-Unis qui se pratique avec des chèvres.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé aux États-Unis dans l'Arizona en 2016, la pratique du goat yoga s'est également développée au Canada[1]. Les cours ont lieu dans des fermes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé aux États-Unis dans l'Arizona en 2016, la pratique du goat yoga s'est également développée au Canada. Les cours ont lieu dans des fermes.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les personnes qui pratiquent cette discipline réalisent différentes postures de yoga entourées de chèvres naines[3]
-Selon ses adeptes, la pratique de cette discipline augmenterait les effets relaxants du yoga[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les personnes qui pratiquent cette discipline réalisent différentes postures de yoga entourées de chèvres naines
+Selon ses adeptes, la pratique de cette discipline augmenterait les effets relaxants du yoga.
 </t>
         </is>
       </c>
